--- a/英语词库/gre联想扩展.xlsx
+++ b/英语词库/gre联想扩展.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39">
   <si>
     <t>记忆进度</t>
   </si>
@@ -41,6 +41,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">spire   </t>
     </r>
     <r>
@@ -54,6 +59,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>spiral螺旋 不是</t>
     </r>
     <r>
@@ -90,6 +100,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>不重要的trivial的东西要靠大家一起con来</t>
     </r>
     <r>
@@ -152,6 +168,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>ver</t>
     </r>
     <r>
@@ -168,7 +189,6 @@
         <sz val="9"/>
         <color rgb="FF434343"/>
         <rFont val="Tahoma"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>ert=turn</t>
@@ -187,7 +207,6 @@
         <sz val="9"/>
         <color rgb="FF434343"/>
         <rFont val="Tahoma"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>“</t>
@@ -206,7 +225,6 @@
         <sz val="9"/>
         <color rgb="FF434343"/>
         <rFont val="Tahoma"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">”  </t>
@@ -237,6 +255,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>克c鲁尼rooney的正是他的</t>
     </r>
     <r>
@@ -276,6 +299,19 @@
   </si>
   <si>
     <t>n. 密友；好朋友</t>
+  </si>
+  <si>
+    <t>vestige</t>
+  </si>
+  <si>
+    <t>背心vest有我i的</t>
+  </si>
+  <si>
+    <t>vestig =footprint'track,表示"脚印,踪迹"
+-ial 表形容词,"有…的"</t>
+  </si>
+  <si>
+    <t>退化的，发育不全的：simple structure</t>
   </si>
 </sst>
 </file>
@@ -325,94 +361,11 @@
       <sz val="12"/>
       <color rgb="FF333333"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
       <charset val="0"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -426,6 +379,65 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -458,6 +470,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -465,9 +485,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -498,7 +533,6 @@
       <sz val="9"/>
       <color rgb="FF434343"/>
       <name val="Tahoma"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -517,25 +551,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -547,151 +707,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -735,21 +769,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -785,15 +804,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -802,6 +812,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -810,10 +844,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -822,16 +856,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -846,109 +880,109 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
@@ -965,6 +999,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -974,18 +1011,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1002,6 +1030,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1325,10 +1359,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A12" sqref="$A3:$XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1341,82 +1375,82 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="17" customHeight="1" spans="1:8">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4">
+      <c r="B1" s="5">
         <f>SUM(B3:B3079)/(COUNT(B3:B3079)-1)/10</f>
-        <v>0.1375</v>
-      </c>
-      <c r="C1" s="4" t="str">
+        <v>0.133333333333333</v>
+      </c>
+      <c r="C1" s="5" t="str">
         <f>"基本掌握: "&amp;COUNTIF(B:B,"&gt;=6")&amp;"; 完全不会:"&amp;F1&amp;" 模糊:"&amp;E1</f>
-        <v>基本掌握: 0; 完全不会:8 模糊:10</v>
-      </c>
-      <c r="D1" s="5" t="str">
+        <v>基本掌握: 0; 完全不会:9 模糊:11</v>
+      </c>
+      <c r="D1" s="6" t="str">
         <f>"&gt;=5 "&amp;COUNTIF(B:B,"&gt;=5")&amp;" 4-3 "&amp;COUNTIF(B:B,"&gt;2")-COUNTIF(B:B,"&gt;=5")&amp;" 2-0 "&amp;COUNTIF(B:B,"&lt;=2")</f>
-        <v>&gt;=5 0 4-3 0 2-0 10</v>
-      </c>
-      <c r="E1" s="5">
+        <v>&gt;=5 0 4-3 0 2-0 11</v>
+      </c>
+      <c r="E1" s="6">
         <f>COUNTIF(B:B,"&lt;=4")</f>
-        <v>10</v>
-      </c>
-      <c r="F1" s="5">
+        <v>11</v>
+      </c>
+      <c r="F1" s="6">
         <f>COUNTIF(B:B,"&lt;2")</f>
-        <v>8</v>
-      </c>
-      <c r="H1" s="6"/>
+        <v>9</v>
+      </c>
+      <c r="H1" s="2"/>
     </row>
     <row r="2" s="2" customFormat="1" ht="18" customHeight="1" spans="1:7">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="18" customHeight="1" spans="1:5">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="8">
         <v>1</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="18" customHeight="1" spans="1:5">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="8">
         <v>1</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="12" t="s">
         <v>14</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -1427,11 +1461,10 @@
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="8">
         <v>1</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="15"/>
+      <c r="D5" s="13"/>
       <c r="E5" s="1" t="s">
         <v>17</v>
       </c>
@@ -1440,13 +1473,13 @@
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="8">
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="9" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1454,14 +1487,13 @@
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="8">
         <v>2</v>
       </c>
-      <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="9" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1469,14 +1501,13 @@
       <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="8">
         <v>1</v>
       </c>
-      <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="9" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1484,10 +1515,9 @@
       <c r="A9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="8">
         <v>2</v>
       </c>
-      <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
         <v>28</v>
       </c>
@@ -1499,12 +1529,10 @@
       <c r="A10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="8">
         <v>1</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="9" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1512,15 +1540,32 @@
       <c r="A11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="8">
         <v>1</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="11"/>
+      <c r="D11" s="9"/>
       <c r="E11" s="1" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="12" s="3" customFormat="1" ht="18" customHeight="1" spans="1:5">
+      <c r="A12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="14">
+        <v>1</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
